--- a/qurriculum/Results/8q - 1000 iters/Summary.xlsx
+++ b/qurriculum/Results/8q - 1000 iters/Summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1. GitHub\qurriculum_learning\qurriculum\Results\8q - 1000 iters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC8C57-7716-4F2B-86AA-27C890475D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A73A74-DABC-4E3F-B6F6-EC7143BC946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sum up" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>num_runs</t>
   </si>
@@ -66,20 +67,128 @@
     <t>avg_acc_val_last</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>ACV</t>
-  </si>
-  <si>
-    <t>NCV</t>
+    <t>num_iters</t>
+  </si>
+  <si>
+    <t>with_cv</t>
+  </si>
+  <si>
+    <t>with_val</t>
+  </si>
+  <si>
+    <t>nqubits</t>
+  </si>
+  <si>
+    <t>with_bias</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>loss_type</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>train_size</t>
+  </si>
+  <si>
+    <t>val_size</t>
+  </si>
+  <si>
+    <t>cv_ratios</t>
+  </si>
+  <si>
+    <t>uniform_train</t>
+  </si>
+  <si>
+    <t>epsilon_train</t>
+  </si>
+  <si>
+    <t>uniform_val</t>
+  </si>
+  <si>
+    <t>epsilon_val</t>
+  </si>
+  <si>
+    <t>num_cpus_gs_train</t>
+  </si>
+  <si>
+    <t>num_cpus_gs_val</t>
+  </si>
+  <si>
+    <t>max_weight_init</t>
+  </si>
+  <si>
+    <t>stepsize</t>
+  </si>
+  <si>
+    <t>['CV', 'ACV']</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>cross-entropy</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2, 0.2, 0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>qubits</t>
+  </si>
+  <si>
+    <t>train_points</t>
+  </si>
+  <si>
+    <t>val_points</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>iters</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>acc_train</t>
+  </si>
+  <si>
+    <t>acc_val</t>
+  </si>
+  <si>
+    <t>['NCV', 'CV', 'ACV', 'SCV', 'SACV']</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>SPCL</t>
+  </si>
+  <si>
+    <t>SPACL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +196,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +218,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -110,13 +245,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,16 +633,1157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965C72C-02F5-423A-8A05-F3CD6EF68BDE}">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7">
+        <v>89.7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>82.9</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="8">
+        <v>89.3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="9">
+        <v>90.4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>83.97</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7">
+        <v>88.2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>89.15</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="8">
+        <v>86.4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>87.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9">
+        <v>91.1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>92.11</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8">
+        <v>90.2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>83.87</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7">
+        <v>90.4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="9">
+        <v>93.4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>88.71</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7">
+        <v>92.7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>86.15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8">
+        <v>91.7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>84.789999999999907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9">
+        <v>94.1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>87.37</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="10">
+        <v>92.1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>88.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8">
+        <v>85.6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>80.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9">
+        <v>94</v>
+      </c>
+      <c r="C16" s="9">
+        <v>88.55</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11">
+        <v>93.7</v>
+      </c>
+      <c r="C17" s="11">
+        <v>87.8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="12">
+        <v>91.2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>86.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12">
+        <v>92.9</v>
+      </c>
+      <c r="C19" s="12">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="12">
+        <v>87.8</v>
+      </c>
+      <c r="C20" s="12">
+        <v>81.349999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="13">
+        <v>94.3</v>
+      </c>
+      <c r="C21" s="13">
+        <v>88.5</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11">
+        <v>88.1</v>
+      </c>
+      <c r="C22" s="11">
+        <v>85.6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="12">
+        <v>87.3</v>
+      </c>
+      <c r="C23" s="12">
+        <v>84.229999999999905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="12">
+        <v>89.7</v>
+      </c>
+      <c r="C24" s="12">
+        <v>87.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="12">
+        <v>84.6</v>
+      </c>
+      <c r="C25" s="12">
+        <v>80.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="13">
+        <v>87.8</v>
+      </c>
+      <c r="C26" s="13">
+        <v>85.199999999999903</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" activeCellId="1" sqref="L24:L28 N24:N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
@@ -419,9 +1797,10 @@
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -461,10 +1840,70 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -505,10 +1944,70 @@
       <c r="N2" s="1">
         <v>89.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="Z2">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>6.28318530717958</v>
+      </c>
+      <c r="AI2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -550,9 +2049,9 @@
         <v>87.26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -592,6 +2091,1142 @@
       </c>
       <c r="N4" s="1">
         <v>92.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>999</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>94</v>
+      </c>
+      <c r="I6">
+        <v>91.2</v>
+      </c>
+      <c r="J6">
+        <v>84.9</v>
+      </c>
+      <c r="K6">
+        <v>94</v>
+      </c>
+      <c r="L6" s="1">
+        <v>90.2</v>
+      </c>
+      <c r="M6">
+        <v>84.92</v>
+      </c>
+      <c r="N6" s="1">
+        <v>83.87</v>
+      </c>
+      <c r="P6">
+        <v>1000</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6">
+        <v>50</v>
+      </c>
+      <c r="Y6">
+        <v>50</v>
+      </c>
+      <c r="Z6">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>6.2831853070000001</v>
+      </c>
+      <c r="AI6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>809</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>96</v>
+      </c>
+      <c r="I7">
+        <v>85.1</v>
+      </c>
+      <c r="J7">
+        <v>88.5</v>
+      </c>
+      <c r="K7">
+        <v>91.2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="M7">
+        <v>82.66</v>
+      </c>
+      <c r="N7" s="1">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>906</v>
+      </c>
+      <c r="F8">
+        <v>999</v>
+      </c>
+      <c r="G8">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>87.2</v>
+      </c>
+      <c r="J8">
+        <v>85.8</v>
+      </c>
+      <c r="K8">
+        <v>94.6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>93.4</v>
+      </c>
+      <c r="M8">
+        <v>88.5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>88.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>189</v>
+      </c>
+      <c r="F10">
+        <v>999</v>
+      </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <v>94.7</v>
+      </c>
+      <c r="J10">
+        <v>85.7</v>
+      </c>
+      <c r="K10">
+        <v>96.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="M10">
+        <v>89.75</v>
+      </c>
+      <c r="N10" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="P10">
+        <v>1000</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
+        <v>100</v>
+      </c>
+      <c r="Y10">
+        <v>100</v>
+      </c>
+      <c r="Z10">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>6.2831853070000001</v>
+      </c>
+      <c r="AI10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>805</v>
+      </c>
+      <c r="F11">
+        <v>999</v>
+      </c>
+      <c r="G11">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>99</v>
+      </c>
+      <c r="I11">
+        <v>95.4</v>
+      </c>
+      <c r="J11">
+        <v>93.7</v>
+      </c>
+      <c r="K11">
+        <v>88.4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="M11">
+        <v>80.87</v>
+      </c>
+      <c r="N11" s="1">
+        <v>80.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>837</v>
+      </c>
+      <c r="F12">
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <v>98</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>92.1</v>
+      </c>
+      <c r="J12">
+        <v>91</v>
+      </c>
+      <c r="K12">
+        <v>95</v>
+      </c>
+      <c r="L12" s="1">
+        <v>94</v>
+      </c>
+      <c r="M12">
+        <v>88.64</v>
+      </c>
+      <c r="N12" s="1">
+        <v>88.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>153</v>
+      </c>
+      <c r="F14">
+        <v>999</v>
+      </c>
+      <c r="G14">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>96</v>
+      </c>
+      <c r="I14">
+        <v>88.8</v>
+      </c>
+      <c r="J14">
+        <v>87.8</v>
+      </c>
+      <c r="K14">
+        <v>94</v>
+      </c>
+      <c r="L14" s="1">
+        <v>92.7</v>
+      </c>
+      <c r="M14">
+        <v>85.8</v>
+      </c>
+      <c r="N14" s="1">
+        <v>86.15</v>
+      </c>
+      <c r="P14">
+        <v>1000</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>8</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14">
+        <v>100</v>
+      </c>
+      <c r="Y14">
+        <v>100</v>
+      </c>
+      <c r="Z14">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>6.28318530717958</v>
+      </c>
+      <c r="AI14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>902</v>
+      </c>
+      <c r="F15">
+        <v>999</v>
+      </c>
+      <c r="G15">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>98</v>
+      </c>
+      <c r="I15">
+        <v>89.8</v>
+      </c>
+      <c r="J15">
+        <v>91.2</v>
+      </c>
+      <c r="K15">
+        <v>93.1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="M15">
+        <v>85.01</v>
+      </c>
+      <c r="N15" s="1">
+        <v>84.789999999999907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>748</v>
+      </c>
+      <c r="F16">
+        <v>999</v>
+      </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>94</v>
+      </c>
+      <c r="I16">
+        <v>89.5</v>
+      </c>
+      <c r="J16">
+        <v>84.4</v>
+      </c>
+      <c r="K16">
+        <v>95.4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="M16">
+        <v>87.36</v>
+      </c>
+      <c r="N16" s="1">
+        <v>87.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>999</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>96</v>
+      </c>
+      <c r="I18">
+        <v>92.1</v>
+      </c>
+      <c r="J18">
+        <v>89.8</v>
+      </c>
+      <c r="K18">
+        <v>96.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>93.7</v>
+      </c>
+      <c r="M18">
+        <v>88.88</v>
+      </c>
+      <c r="N18" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="P18">
+        <v>1000</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18">
+        <v>100</v>
+      </c>
+      <c r="Y18">
+        <v>100</v>
+      </c>
+      <c r="Z18">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>6.2831853070000001</v>
+      </c>
+      <c r="AI18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>491</v>
+      </c>
+      <c r="F19">
+        <v>999</v>
+      </c>
+      <c r="G19">
+        <v>96</v>
+      </c>
+      <c r="H19">
+        <v>95</v>
+      </c>
+      <c r="I19">
+        <v>90.4</v>
+      </c>
+      <c r="J19">
+        <v>89.2</v>
+      </c>
+      <c r="K19">
+        <v>91.8</v>
+      </c>
+      <c r="L19" s="1">
+        <v>91.2</v>
+      </c>
+      <c r="M19">
+        <v>85.73</v>
+      </c>
+      <c r="N19" s="1">
+        <v>86.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>501</v>
+      </c>
+      <c r="F20">
+        <v>999</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>93.3</v>
+      </c>
+      <c r="J20">
+        <v>94.1</v>
+      </c>
+      <c r="K20">
+        <v>93.1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>92.9</v>
+      </c>
+      <c r="M20">
+        <v>84.86</v>
+      </c>
+      <c r="N20" s="1">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>903</v>
+      </c>
+      <c r="F21">
+        <v>999</v>
+      </c>
+      <c r="G21">
+        <v>95</v>
+      </c>
+      <c r="H21">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>88</v>
+      </c>
+      <c r="J21">
+        <v>88.8</v>
+      </c>
+      <c r="K21">
+        <v>88.7</v>
+      </c>
+      <c r="L21" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="M21">
+        <v>81.45</v>
+      </c>
+      <c r="N21" s="1">
+        <v>81.349999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>164</v>
+      </c>
+      <c r="F22">
+        <v>999</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>93</v>
+      </c>
+      <c r="I22">
+        <v>94</v>
+      </c>
+      <c r="J22">
+        <v>88.9</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>94.3</v>
+      </c>
+      <c r="M22">
+        <v>93.03</v>
+      </c>
+      <c r="N22" s="1">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>153</v>
+      </c>
+      <c r="F24">
+        <v>999</v>
+      </c>
+      <c r="G24">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>93</v>
+      </c>
+      <c r="I24">
+        <v>92.5</v>
+      </c>
+      <c r="J24">
+        <v>90.5</v>
+      </c>
+      <c r="K24">
+        <v>91.2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="M24">
+        <v>86.08</v>
+      </c>
+      <c r="N24" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="P24">
+        <v>1000</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="R24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24">
+        <v>100</v>
+      </c>
+      <c r="Y24">
+        <v>100</v>
+      </c>
+      <c r="Z24">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>6.2831853070000001</v>
+      </c>
+      <c r="AI24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>710</v>
+      </c>
+      <c r="F25">
+        <v>999</v>
+      </c>
+      <c r="G25">
+        <v>93</v>
+      </c>
+      <c r="H25">
+        <v>93</v>
+      </c>
+      <c r="I25">
+        <v>88.3</v>
+      </c>
+      <c r="J25">
+        <v>88.2</v>
+      </c>
+      <c r="K25">
+        <v>87.9</v>
+      </c>
+      <c r="L25" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="M25">
+        <v>83.869999999999905</v>
+      </c>
+      <c r="N25" s="1">
+        <v>84.229999999999905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>273</v>
+      </c>
+      <c r="F26">
+        <v>999</v>
+      </c>
+      <c r="G26">
+        <v>98</v>
+      </c>
+      <c r="H26">
+        <v>85</v>
+      </c>
+      <c r="I26">
+        <v>91.5</v>
+      </c>
+      <c r="J26">
+        <v>81.8</v>
+      </c>
+      <c r="K26">
+        <v>94.7</v>
+      </c>
+      <c r="L26" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="M26">
+        <v>90</v>
+      </c>
+      <c r="N26" s="1">
+        <v>87.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>904</v>
+      </c>
+      <c r="F27">
+        <v>999</v>
+      </c>
+      <c r="G27">
+        <v>92</v>
+      </c>
+      <c r="H27">
+        <v>92</v>
+      </c>
+      <c r="I27">
+        <v>85.9</v>
+      </c>
+      <c r="J27">
+        <v>86.5</v>
+      </c>
+      <c r="K27">
+        <v>86.2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="M27">
+        <v>81.94</v>
+      </c>
+      <c r="N27" s="1">
+        <v>80.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>187</v>
+      </c>
+      <c r="F28">
+        <v>999</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>92</v>
+      </c>
+      <c r="I28">
+        <v>95.1</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>99.2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>87.8</v>
+      </c>
+      <c r="M28">
+        <v>93.61</v>
+      </c>
+      <c r="N28" s="1">
+        <v>85.199999999999903</v>
       </c>
     </row>
   </sheetData>
